--- a/MainTop/19.09.2024/таня месяц с 19.08.2024 по 19.09.2024/печать_все.xlsx
+++ b/MainTop/19.09.2024/таня месяц с 19.08.2024 по 19.09.2024/печать_все.xlsx
@@ -540,7 +540,7 @@
   <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q131" activeCellId="0" sqref="Q131"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
